--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1802,28 +1802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.3771037127585</v>
+        <v>136.2772966077597</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.0228227938758</v>
+        <v>186.460609348666</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.6094165483325</v>
+        <v>168.6650704915906</v>
       </c>
       <c r="AD2" t="n">
-        <v>110377.1037127585</v>
+        <v>136277.2966077597</v>
       </c>
       <c r="AE2" t="n">
-        <v>151022.8227938758</v>
+        <v>186460.609348666</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.280406658189958e-06</v>
+        <v>6.170909957497294e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.100694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>136609.4165483325</v>
+        <v>168665.0704915906</v>
       </c>
     </row>
     <row r="3">
@@ -1908,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.91471690191216</v>
+        <v>103.8148202883623</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.6063530198674</v>
+        <v>142.0440171051091</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.43199231063446</v>
+        <v>128.487535472666</v>
       </c>
       <c r="AD3" t="n">
-        <v>77914.71690191216</v>
+        <v>103814.8202883623</v>
       </c>
       <c r="AE3" t="n">
-        <v>106606.3530198674</v>
+        <v>142044.0171051091</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.457238828744668e-06</v>
+        <v>7.867507019293784e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.56712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>96431.99231063445</v>
+        <v>128487.535472666</v>
       </c>
     </row>
     <row r="4">
@@ -2014,28 +2014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.64873588060262</v>
+        <v>90.91556098012042</v>
       </c>
       <c r="AB4" t="n">
-        <v>100.7694495847145</v>
+        <v>124.3946814444241</v>
       </c>
       <c r="AC4" t="n">
-        <v>91.15215474718531</v>
+        <v>112.5226276364329</v>
       </c>
       <c r="AD4" t="n">
-        <v>73648.73588060262</v>
+        <v>90915.56098012041</v>
       </c>
       <c r="AE4" t="n">
-        <v>100769.4495847145</v>
+        <v>124394.6814444241</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.857639063853073e-06</v>
+        <v>8.444749789694375e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.190972222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>91152.15474718531</v>
+        <v>112522.6276364329</v>
       </c>
     </row>
   </sheetData>
@@ -2311,28 +2311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.47267628445103</v>
+        <v>114.6396956034392</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.42046294823</v>
+        <v>156.8550890709843</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.7368257826819</v>
+        <v>141.8850595175928</v>
       </c>
       <c r="AD2" t="n">
-        <v>89472.67628445102</v>
+        <v>114639.6956034392</v>
       </c>
       <c r="AE2" t="n">
-        <v>122420.46294823</v>
+        <v>156855.0890709843</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.010161862391329e-06</v>
+        <v>7.334688489497963e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.273148148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>110736.8257826819</v>
+        <v>141885.0595175928</v>
       </c>
     </row>
     <row r="3">
@@ -2417,28 +2417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.4601556000337</v>
+        <v>87.29509221859058</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.40669337460835</v>
+        <v>119.4409963610924</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.20577386660349</v>
+        <v>108.0417153049122</v>
       </c>
       <c r="AD3" t="n">
-        <v>70460.1556000337</v>
+        <v>87295.09221859058</v>
       </c>
       <c r="AE3" t="n">
-        <v>96406.69337460835</v>
+        <v>119440.9963610924</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.102348679711733e-06</v>
+        <v>8.933608903130635e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.150462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>87205.7738666035</v>
+        <v>108041.7153049122</v>
       </c>
     </row>
     <row r="4">
@@ -2523,28 +2523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.54496582650064</v>
+        <v>87.37990244505751</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.52273446802347</v>
+        <v>119.5570374545076</v>
       </c>
       <c r="AC4" t="n">
-        <v>87.31074016092782</v>
+        <v>108.1466815992365</v>
       </c>
       <c r="AD4" t="n">
-        <v>70544.96582650064</v>
+        <v>87379.90244505751</v>
       </c>
       <c r="AE4" t="n">
-        <v>96522.73446802347</v>
+        <v>119557.0374545075</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.104250213741787e-06</v>
+        <v>8.936392677416917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.150462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>87310.74016092782</v>
+        <v>108146.6815992365</v>
       </c>
     </row>
   </sheetData>
@@ -2820,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.35564078068813</v>
+        <v>86.48691478281516</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.68598276971149</v>
+        <v>118.3352123391929</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.41279423873188</v>
+        <v>107.0414657580848</v>
       </c>
       <c r="AD2" t="n">
-        <v>63355.64078068813</v>
+        <v>86486.91478281516</v>
       </c>
       <c r="AE2" t="n">
-        <v>86685.98276971148</v>
+        <v>118335.2123391929</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.457350041699509e-06</v>
+        <v>9.990317564048453e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.434027777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>78412.79423873188</v>
+        <v>107041.4657580848</v>
       </c>
     </row>
   </sheetData>
@@ -3117,28 +3117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.03545972209534</v>
+        <v>82.07848025413533</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.35262927061078</v>
+        <v>112.303397730651</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.72950114375718</v>
+        <v>101.5853190700752</v>
       </c>
       <c r="AD2" t="n">
-        <v>66035.45972209534</v>
+        <v>82078.48025413533</v>
       </c>
       <c r="AE2" t="n">
-        <v>90352.62927061078</v>
+        <v>112303.397730651</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.369975656623668e-06</v>
+        <v>9.626905788961342e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.266203703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>81729.50114375718</v>
+        <v>101585.3190700752</v>
       </c>
     </row>
     <row r="3">
@@ -3223,28 +3223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.80170656088379</v>
+        <v>81.8447270929238</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.03279788297965</v>
+        <v>111.9835663430199</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.4401940148753</v>
+        <v>101.2960119411933</v>
       </c>
       <c r="AD3" t="n">
-        <v>65801.70656088379</v>
+        <v>81844.7270929238</v>
       </c>
       <c r="AE3" t="n">
-        <v>90032.79788297965</v>
+        <v>111983.5663430199</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.41973701353264e-06</v>
+        <v>9.702109827519232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.225694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>81440.19401487531</v>
+        <v>101296.0119411933</v>
       </c>
     </row>
   </sheetData>
@@ -3520,28 +3520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.84055054211027</v>
+        <v>84.51698545353344</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.61296946422638</v>
+        <v>115.6398681237226</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.53762641362916</v>
+        <v>104.6033614115987</v>
       </c>
       <c r="AD2" t="n">
-        <v>61840.55054211027</v>
+        <v>84516.98545353343</v>
       </c>
       <c r="AE2" t="n">
-        <v>84612.96946422638</v>
+        <v>115639.8681237226</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.350256839267717e-06</v>
+        <v>1.003650467005315e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.734953703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>76537.62641362916</v>
+        <v>104603.3614115987</v>
       </c>
     </row>
   </sheetData>
@@ -3817,28 +3817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.7993608267337</v>
+        <v>117.1366574380338</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.6039353850572</v>
+        <v>160.2715424112565</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.6164720781709</v>
+        <v>144.9754513460929</v>
       </c>
       <c r="AD2" t="n">
-        <v>91799.3608267337</v>
+        <v>117136.6574380338</v>
       </c>
       <c r="AE2" t="n">
-        <v>125603.9353850572</v>
+        <v>160271.5424112565</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.845520113031201e-06</v>
+        <v>7.064217335418465e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.429398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>113616.4720781709</v>
+        <v>144975.4513460929</v>
       </c>
     </row>
     <row r="3">
@@ -3923,28 +3923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.03695331737912</v>
+        <v>88.98540813081058</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.56413757488502</v>
+        <v>121.7537611636657</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.15731462039841</v>
+        <v>110.1337530807144</v>
       </c>
       <c r="AD3" t="n">
-        <v>72036.95331737911</v>
+        <v>88985.40813081058</v>
       </c>
       <c r="AE3" t="n">
-        <v>98564.13757488503</v>
+        <v>121753.7611636657</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.959770065686661e-06</v>
+        <v>8.688667063811784e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.225694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>89157.31462039841</v>
+        <v>110133.7530807144</v>
       </c>
     </row>
     <row r="4">
@@ -4029,28 +4029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.40473719995978</v>
+        <v>88.35319201339124</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.69911159162568</v>
+        <v>120.8887351804064</v>
       </c>
       <c r="AC4" t="n">
-        <v>88.37484550290948</v>
+        <v>109.3512839632255</v>
       </c>
       <c r="AD4" t="n">
-        <v>71404.73719995978</v>
+        <v>88353.19201339124</v>
       </c>
       <c r="AE4" t="n">
-        <v>97699.11159162568</v>
+        <v>120888.7351804064</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.02346456648354e-06</v>
+        <v>8.781526403202425e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.173611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>88374.84550290948</v>
+        <v>109351.2839632255</v>
       </c>
     </row>
   </sheetData>
@@ -4326,28 +4326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.75525634995222</v>
+        <v>90.97609094706276</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.0739750058015</v>
+        <v>124.4775012155882</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.09568686492405</v>
+        <v>112.5975432048754</v>
       </c>
       <c r="AD2" t="n">
-        <v>68755.25634995222</v>
+        <v>90976.09094706275</v>
       </c>
       <c r="AE2" t="n">
-        <v>94073.97500580151</v>
+        <v>124477.5012155882</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.17147112413981e-06</v>
+        <v>9.888146405108706e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>85095.68686492405</v>
+        <v>112597.5432048754</v>
       </c>
     </row>
   </sheetData>
@@ -4623,28 +4623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.56751599789662</v>
+        <v>109.1819031177944</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.7090062437706</v>
+        <v>149.3874966113179</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.6659010865053</v>
+        <v>135.1301636014427</v>
       </c>
       <c r="AD2" t="n">
-        <v>84567.51599789663</v>
+        <v>109181.9031177944</v>
       </c>
       <c r="AE2" t="n">
-        <v>115709.0062437706</v>
+        <v>149387.4966113179</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.346908832532843e-06</v>
+        <v>7.939321205657881e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.059027777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>104665.9010865053</v>
+        <v>135130.1636014427</v>
       </c>
     </row>
     <row r="3">
@@ -4729,28 +4729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.32132007252218</v>
+        <v>84.78783522501882</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.48024424710459</v>
+        <v>116.0104567301173</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.55862093653063</v>
+        <v>104.9385815615236</v>
       </c>
       <c r="AD3" t="n">
-        <v>68321.32007252218</v>
+        <v>84787.83522501882</v>
       </c>
       <c r="AE3" t="n">
-        <v>93480.24424710459</v>
+        <v>116010.4567301173</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.241913337546063e-06</v>
+        <v>9.268262556326989e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.190972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>84558.62093653063</v>
+        <v>104938.5815615236</v>
       </c>
     </row>
   </sheetData>
@@ -5026,28 +5026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.6372767516855</v>
+        <v>112.6275437706047</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.9091883353889</v>
+        <v>154.1019741634278</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.4652236942934</v>
+        <v>139.3946980327915</v>
       </c>
       <c r="AD2" t="n">
-        <v>87637.27675168551</v>
+        <v>112627.5437706047</v>
       </c>
       <c r="AE2" t="n">
-        <v>119909.1883353889</v>
+        <v>154101.9741634278</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.137221675265558e-06</v>
+        <v>7.55398897607978e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.180555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>108465.2236942934</v>
+        <v>139394.6980327915</v>
       </c>
     </row>
     <row r="3">
@@ -5132,28 +5132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.82873277765466</v>
+        <v>86.54583452949886</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.54275281262085</v>
+        <v>118.4158289359613</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.42428657930361</v>
+        <v>107.1143884200037</v>
       </c>
       <c r="AD3" t="n">
-        <v>69828.73277765466</v>
+        <v>86545.83452949887</v>
       </c>
       <c r="AE3" t="n">
-        <v>95542.75281262085</v>
+        <v>118415.8289359613</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.131243109095114e-06</v>
+        <v>9.015640317560451e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.179398148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>86424.28657930362</v>
+        <v>107114.3884200037</v>
       </c>
     </row>
   </sheetData>
@@ -5429,28 +5429,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.66932018669551</v>
+        <v>131.9119601654401</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.6354727456831</v>
+        <v>180.4877634432355</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.8814907854347</v>
+        <v>163.2622646164307</v>
       </c>
       <c r="AD2" t="n">
-        <v>97669.32018669552</v>
+        <v>131911.9601654401</v>
       </c>
       <c r="AE2" t="n">
-        <v>133635.4727456831</v>
+        <v>180487.7634432355</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.489267596157335e-06</v>
+        <v>6.494948933184494e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.822916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>120881.4907854347</v>
+        <v>163262.2646164306</v>
       </c>
     </row>
     <row r="3">
@@ -5535,28 +5535,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.94158304973649</v>
+        <v>102.6875686747237</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.2748683516857</v>
+        <v>140.5016617164982</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.22758267043312</v>
+        <v>127.0923803176342</v>
       </c>
       <c r="AD3" t="n">
-        <v>76941.5830497365</v>
+        <v>102687.5686747237</v>
       </c>
       <c r="AE3" t="n">
-        <v>105274.8683516857</v>
+        <v>140501.6617164982</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.522092421055682e-06</v>
+        <v>7.989211494048973e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.549768518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>95227.58267043313</v>
+        <v>127092.3803176342</v>
       </c>
     </row>
     <row r="4">
@@ -5641,28 +5641,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.35700788892427</v>
+        <v>89.52108781413344</v>
       </c>
       <c r="AB4" t="n">
-        <v>99.00205035948404</v>
+        <v>122.4867017389074</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.55343362344988</v>
+        <v>110.7967428361438</v>
       </c>
       <c r="AD4" t="n">
-        <v>72357.00788892427</v>
+        <v>89521.08781413344</v>
       </c>
       <c r="AE4" t="n">
-        <v>99002.05035948404</v>
+        <v>122486.7017389074</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.976831798086784e-06</v>
+        <v>8.647115922435742e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.127314814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>89553.43362344988</v>
+        <v>110796.7428361438</v>
       </c>
     </row>
   </sheetData>
@@ -5938,28 +5938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.92471926580421</v>
+        <v>93.0415547648085</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.3058416434463</v>
+        <v>127.3035599328591</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.30542447609896</v>
+        <v>115.1538868445692</v>
       </c>
       <c r="AD2" t="n">
-        <v>68924.71926580422</v>
+        <v>93041.55476480849</v>
       </c>
       <c r="AE2" t="n">
-        <v>94305.8416434463</v>
+        <v>127303.5599328591</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.043185476240899e-06</v>
+        <v>9.074958649429594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>85305.42447609897</v>
+        <v>115153.8868445692</v>
       </c>
     </row>
     <row r="3">
@@ -6044,28 +6044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.61466530939882</v>
+        <v>82.80637328434752</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.14512390790608</v>
+        <v>113.2993330869609</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.44636120514248</v>
+        <v>102.4862037537832</v>
       </c>
       <c r="AD3" t="n">
-        <v>66614.66530939881</v>
+        <v>82806.37328434752</v>
       </c>
       <c r="AE3" t="n">
-        <v>91145.12390790608</v>
+        <v>113299.3330869609</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.366766991804552e-06</v>
+        <v>9.560876032737598e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>82446.36120514249</v>
+        <v>102486.2037537832</v>
       </c>
     </row>
   </sheetData>
@@ -6341,28 +6341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.1025204575317</v>
+        <v>87.50650423318048</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.70789649357418</v>
+        <v>119.730259606294</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.33717795105436</v>
+        <v>108.3033716719753</v>
       </c>
       <c r="AD2" t="n">
-        <v>64102.52045753169</v>
+        <v>87506.50423318047</v>
       </c>
       <c r="AE2" t="n">
-        <v>87707.89649357418</v>
+        <v>119730.259606294</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.475101913182433e-06</v>
+        <v>9.931166508021406e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.329861111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>79337.17795105436</v>
+        <v>108303.3716719753</v>
       </c>
     </row>
   </sheetData>
@@ -10419,28 +10419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.37436321020201</v>
+        <v>85.37914348047592</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.34335550686194</v>
+        <v>116.8195107719125</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.19830543745907</v>
+        <v>105.6704206210846</v>
       </c>
       <c r="AD2" t="n">
-        <v>62374.36321020201</v>
+        <v>85379.14348047592</v>
       </c>
       <c r="AE2" t="n">
-        <v>85343.35550686195</v>
+        <v>116819.5107719125</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.468499393271498e-06</v>
+        <v>1.010690270847162e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.520833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>77198.30543745907</v>
+        <v>105670.4206210846</v>
       </c>
     </row>
   </sheetData>
@@ -10716,28 +10716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.25803674686587</v>
+        <v>90.21864607893129</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.39365720907837</v>
+        <v>123.4411317309021</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.48029764388791</v>
+        <v>111.6600833692537</v>
       </c>
       <c r="AD2" t="n">
-        <v>68258.03674686587</v>
+        <v>90218.64607893128</v>
       </c>
       <c r="AE2" t="n">
-        <v>93393.65720907837</v>
+        <v>123441.1317309021</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.825126325869347e-06</v>
+        <v>9.493069345536282e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.579861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>84480.29764388791</v>
+        <v>111660.0833692537</v>
       </c>
     </row>
   </sheetData>
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.55816234583266</v>
+        <v>111.3644979174753</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.4326963981341</v>
+        <v>152.3738191055267</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.1296460752604</v>
+        <v>137.831475668135</v>
       </c>
       <c r="AD2" t="n">
-        <v>86558.16234583265</v>
+        <v>111364.4979174753</v>
       </c>
       <c r="AE2" t="n">
-        <v>118432.6963981341</v>
+        <v>152373.8191055267</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.202852738610548e-06</v>
+        <v>7.68659476606043e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.163194444444446</v>
       </c>
       <c r="AH2" t="n">
-        <v>107129.6460752604</v>
+        <v>137831.475668135</v>
       </c>
     </row>
     <row r="3">
@@ -11119,28 +11119,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.92861165490402</v>
+        <v>85.52309244189723</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.31116738193272</v>
+        <v>117.016468091509</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.31024193357898</v>
+        <v>105.8485806105302</v>
       </c>
       <c r="AD3" t="n">
-        <v>68928.61165490402</v>
+        <v>85523.09244189723</v>
       </c>
       <c r="AE3" t="n">
-        <v>94311.16738193273</v>
+        <v>117016.468091509</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.213832289878367e-06</v>
+        <v>9.180196549116975e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>85310.24193357897</v>
+        <v>105848.5806105302</v>
       </c>
     </row>
   </sheetData>
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.63274379519281</v>
+        <v>128.6633343034473</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.4806949625355</v>
+        <v>176.0428502196011</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.1232391626422</v>
+        <v>159.2415676723836</v>
       </c>
       <c r="AD2" t="n">
-        <v>94632.74379519282</v>
+        <v>128663.3343034473</v>
       </c>
       <c r="AE2" t="n">
-        <v>129480.6949625355</v>
+        <v>176042.8502196011</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.666300183892924e-06</v>
+        <v>6.776256544672344e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.62037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>117123.2391626422</v>
+        <v>159241.5676723836</v>
       </c>
     </row>
     <row r="3">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.35653341889868</v>
+        <v>99.77288974042607</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7378894024343</v>
+        <v>136.5136694120348</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.02816802791602</v>
+        <v>123.4849964015251</v>
       </c>
       <c r="AD3" t="n">
-        <v>74356.53341889867</v>
+        <v>99772.88974042606</v>
       </c>
       <c r="AE3" t="n">
-        <v>101737.8894024343</v>
+        <v>136513.6694120348</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.739796368913008e-06</v>
+        <v>8.335154442954245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.381944444444446</v>
       </c>
       <c r="AH3" t="n">
-        <v>92028.16802791602</v>
+        <v>123484.9964015251</v>
       </c>
     </row>
     <row r="4">
@@ -11628,28 +11628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.00300932629204</v>
+        <v>89.06106451625612</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.51769390877651</v>
+        <v>121.8572775679565</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.11530347259915</v>
+        <v>110.2273900246658</v>
       </c>
       <c r="AD4" t="n">
-        <v>72003.00932629204</v>
+        <v>89061.06451625613</v>
       </c>
       <c r="AE4" t="n">
-        <v>98517.69390877651</v>
+        <v>121857.2775679565</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.988220179021081e-06</v>
+        <v>8.695907802737647e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>89115.30347259915</v>
+        <v>110227.3900246658</v>
       </c>
     </row>
   </sheetData>
@@ -11925,28 +11925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.58837344699235</v>
+        <v>104.0510293280364</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.4233472738178</v>
+        <v>142.3672087339985</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.5527681656102</v>
+        <v>128.7798821460965</v>
       </c>
       <c r="AD2" t="n">
-        <v>75588.37344699235</v>
+        <v>104051.0293280364</v>
       </c>
       <c r="AE2" t="n">
-        <v>103423.3472738178</v>
+        <v>142367.2087339985</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.104960095142152e-06</v>
+        <v>8.509664329971079e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>93552.76816561021</v>
+        <v>128779.8821460965</v>
       </c>
     </row>
   </sheetData>
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.9226448840178</v>
+        <v>80.80781634420038</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.83002691522803</v>
+        <v>110.5648193113435</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.3522138201859</v>
+        <v>100.0126681349957</v>
       </c>
       <c r="AD2" t="n">
-        <v>64922.6448840178</v>
+        <v>80807.81634420037</v>
       </c>
       <c r="AE2" t="n">
-        <v>88830.02691522804</v>
+        <v>110564.8193113435</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.444271695588171e-06</v>
+        <v>9.807579765690283e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>80352.21382018589</v>
+        <v>100012.6681349957</v>
       </c>
     </row>
   </sheetData>
@@ -12519,28 +12519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.48393121061869</v>
+        <v>96.98259466971192</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.17571244768801</v>
+        <v>132.695864597155</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.710521645692</v>
+        <v>120.0315575198535</v>
       </c>
       <c r="AD2" t="n">
-        <v>72483.9312106187</v>
+        <v>96982.59466971192</v>
       </c>
       <c r="AE2" t="n">
-        <v>99175.71244768801</v>
+        <v>132695.864597155</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.681466920768135e-06</v>
+        <v>8.481922723743313e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>89710.521645692</v>
+        <v>120031.5575198536</v>
       </c>
     </row>
     <row r="3">
@@ -12625,28 +12625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.30540024812912</v>
+        <v>83.63793206274231</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.09021792415122</v>
+        <v>114.4371084933442</v>
       </c>
       <c r="AC3" t="n">
-        <v>83.30125677492528</v>
+        <v>103.5153914722595</v>
       </c>
       <c r="AD3" t="n">
-        <v>67305.40024812912</v>
+        <v>83637.93206274231</v>
       </c>
       <c r="AE3" t="n">
-        <v>92090.21792415122</v>
+        <v>114437.1084933442</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.331915897680311e-06</v>
+        <v>9.452984957290749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.173611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>83301.25677492528</v>
+        <v>103515.3914722595</v>
       </c>
     </row>
   </sheetData>
